--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2126309.423731467</v>
+        <v>2232064.823621014</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004886</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>698313.6830760741</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5964903.469885392</v>
+        <v>6354461.59659402</v>
       </c>
     </row>
     <row r="11">
@@ -665,7 +667,7 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>320.5512361789145</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -674,7 +676,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>276.8642848047248</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>4.378995526348825</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>98.15366458399333</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -914,7 +916,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>154.6054260348455</v>
+        <v>120.057523490882</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1057,7 +1059,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1102,13 +1104,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>115.1055716303386</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>107.5877830610737</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>401.0342846708688</v>
       </c>
       <c r="E8" t="n">
-        <v>124.8703343015022</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
@@ -1339,25 +1341,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>109.8268474048518</v>
       </c>
       <c r="X10" t="n">
-        <v>169.983518543731</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>221.4655660477355</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>86.84298537427114</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.5854374042942</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,10 +1584,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>91.52886609957531</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1594,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1609,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>342.3167596710885</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>29.89949249262277</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1768,10 +1770,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>157.1622236199728</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2008,16 +2010,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>136.6601511077862</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>25.13775189891279</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2065,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2095,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
@@ -2242,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429698</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>92.01098438110758</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271525</v>
       </c>
     </row>
     <row r="23">
@@ -2479,19 +2481,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>224.9097944382469</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2719,13 +2721,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>179.5542780971385</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>215.9418961929795</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>130.040089848451</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>33.40145193727082</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3013,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>101.6653006939802</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,19 +3240,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>249.7666352409433</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3424,7 +3426,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3478,7 +3480,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3487,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>157.8339541404063</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3664,7 +3666,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,10 +3717,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>50.32956823034532</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>230.5747698350939</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3727,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3743,10 +3745,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>247.6770388427901</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>348.2930417606509</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3755,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>84.04221984393918</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>123.0673923170403</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3989,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -4028,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>98.67623389174112</v>
+        <v>214.0679051944713</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4037,13 +4039,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4192,7 +4194,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>231.7089075452189</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>129.9297397222204</v>
+        <v>729.6507098898962</v>
       </c>
       <c r="C2" t="n">
-        <v>107.0694137759246</v>
+        <v>706.7903839436004</v>
       </c>
       <c r="D2" t="n">
-        <v>87.81719700132894</v>
+        <v>687.5381671690047</v>
       </c>
       <c r="E2" t="n">
-        <v>65.88066118959054</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H2" t="n">
         <v>44.49822504924753</v>
@@ -4328,28 +4330,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L2" t="n">
-        <v>1508.432753835019</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M2" t="n">
-        <v>1508.432753835019</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N2" t="n">
-        <v>1508.432753835019</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O2" t="n">
-        <v>1508.432753835019</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P2" t="n">
-        <v>2059.098288819458</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
@@ -4358,22 +4360,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2003.98568150701</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V2" t="n">
-        <v>1646.496266633259</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W2" t="n">
-        <v>1366.835372891113</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="X2" t="n">
-        <v>955.1153740588601</v>
+        <v>1554.836344226536</v>
       </c>
       <c r="Y2" t="n">
-        <v>549.7781040137504</v>
+        <v>1149.499074181426</v>
       </c>
     </row>
     <row r="3">
@@ -4416,16 +4418,16 @@
         <v>595.1637600336857</v>
       </c>
       <c r="M3" t="n">
-        <v>751.8547856608809</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N3" t="n">
-        <v>1302.520320645319</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O3" t="n">
-        <v>1853.185855629757</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q3" t="n">
         <v>1853.185855629757</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>458.7432593109778</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="C4" t="n">
-        <v>454.3200315065851</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="D4" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E4" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212358</v>
+        <v>732.1246409340625</v>
       </c>
       <c r="Y4" t="n">
-        <v>458.7432593109778</v>
+        <v>505.7818726238046</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2043.959734409802</v>
+        <v>2078.856605666331</v>
       </c>
       <c r="C5" t="n">
-        <v>2021.099408463506</v>
+        <v>2055.996279720035</v>
       </c>
       <c r="D5" t="n">
-        <v>1597.806787648507</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.829847796364</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F5" t="n">
-        <v>746.7056659857641</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4577,16 +4579,16 @@
         <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>2059.098288819458</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>2059.098288819458</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4598,19 +4600,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2068.744155457482</v>
+        <v>2103.641026714011</v>
       </c>
       <c r="V5" t="n">
-        <v>2068.744155457482</v>
+        <v>2103.641026714011</v>
       </c>
       <c r="W5" t="n">
-        <v>2068.744155457482</v>
+        <v>2103.641026714011</v>
       </c>
       <c r="X5" t="n">
-        <v>2061.064560665634</v>
+        <v>2095.961431922162</v>
       </c>
       <c r="Y5" t="n">
-        <v>2059.767694660928</v>
+        <v>2094.664565917457</v>
       </c>
     </row>
     <row r="6">
@@ -4641,22 +4643,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>323.6423572907505</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>323.6423572907505</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N6" t="n">
-        <v>874.3078922751886</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O6" t="n">
         <v>1302.520320645319</v>
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>964.3625747002551</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="D7" t="n">
         <v>792.3900115791711</v>
@@ -4744,31 +4746,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>2061.60438497749</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>2061.60438497749</v>
+        <v>1655.723715550066</v>
       </c>
       <c r="V7" t="n">
-        <v>2061.60438497749</v>
+        <v>1655.723715550066</v>
       </c>
       <c r="W7" t="n">
-        <v>1786.751981150003</v>
+        <v>1380.871311722579</v>
       </c>
       <c r="X7" t="n">
-        <v>1544.188084595808</v>
+        <v>1380.871311722579</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>1154.528543412321</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042.205662800888</v>
+        <v>1621.711845585579</v>
       </c>
       <c r="C8" t="n">
-        <v>1019.345336854593</v>
+        <v>1598.851519639283</v>
       </c>
       <c r="D8" t="n">
-        <v>596.0527160395928</v>
+        <v>1193.766383608102</v>
       </c>
       <c r="E8" t="n">
-        <v>469.9210652299946</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4805,25 +4807,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>455.3583126271592</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>455.3583126271592</v>
+        <v>572.914647509062</v>
       </c>
       <c r="M8" t="n">
-        <v>1006.023847611597</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596036</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4832,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>1867.421837588626</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="W8" t="n">
-        <v>1471.030487888973</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.350893097124</v>
+        <v>1638.81667184141</v>
       </c>
       <c r="Y8" t="n">
-        <v>1462.054027092418</v>
+        <v>1637.519805836705</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>669.8354755761777</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O9" t="n">
-        <v>1771.166545545054</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4987,22 +4989,22 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1764.398243894584</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="V10" t="n">
-        <v>1764.398243894584</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="W10" t="n">
-        <v>1489.545840067097</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1317.84531628555</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
         <v>1317.84531628555</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2468.184063897751</v>
+        <v>2429.413071721393</v>
       </c>
       <c r="C11" t="n">
-        <v>2041.283333911051</v>
+        <v>2002.512341734693</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.990713096051</v>
+        <v>1579.219720919693</v>
       </c>
       <c r="E11" t="n">
-        <v>1192.013773243908</v>
+        <v>1153.242781067551</v>
       </c>
       <c r="F11" t="n">
-        <v>766.8895914333086</v>
+        <v>728.118599256951</v>
       </c>
       <c r="G11" t="n">
-        <v>362.5505290227573</v>
+        <v>323.7795368463997</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>64.68215049679213</v>
+        <v>540.2611071157279</v>
       </c>
       <c r="L11" t="n">
-        <v>865.1237628945948</v>
+        <v>1469.886154735005</v>
       </c>
       <c r="M11" t="n">
-        <v>1665.565375292398</v>
+        <v>2474.172256154063</v>
       </c>
       <c r="N11" t="n">
-        <v>1665.565375292398</v>
+        <v>3450.423314640764</v>
       </c>
       <c r="O11" t="n">
-        <v>2069.742766177496</v>
+        <v>4295.567964791576</v>
       </c>
       <c r="P11" t="n">
-        <v>2778.022045335424</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822644</v>
       </c>
       <c r="T11" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867277</v>
       </c>
       <c r="U11" t="n">
-        <v>2975.752615436019</v>
+        <v>4420.199469463689</v>
       </c>
       <c r="V11" t="n">
-        <v>2975.752615436019</v>
+        <v>4062.710054589938</v>
       </c>
       <c r="W11" t="n">
-        <v>2888.032428189281</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>2888.032428189281</v>
+        <v>3254.598706058033</v>
       </c>
       <c r="Y11" t="n">
-        <v>2888.032428189281</v>
+        <v>2849.261436012923</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344825</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679213</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>336.3796397763832</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K12" t="n">
-        <v>336.3796397763832</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L12" t="n">
-        <v>336.3796397763832</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="M12" t="n">
-        <v>1136.821252174186</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.350470992599</v>
+        <v>1196.838534313772</v>
       </c>
       <c r="O12" t="n">
-        <v>1791.350470992599</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1791.350470992599</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1791.350470992599</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>288.7612160464561</v>
+        <v>1019.941294529998</v>
       </c>
       <c r="C13" t="n">
-        <v>116.7886529253721</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="D13" t="n">
-        <v>64.68215049679213</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>64.68215049679213</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>64.68215049679213</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>64.68215049679213</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>64.68215049679213</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2027.921517116229</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>1784.582169342129</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U13" t="n">
-        <v>1504.397720842433</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="V13" t="n">
-        <v>1222.686253450462</v>
+        <v>1727.523563623745</v>
       </c>
       <c r="W13" t="n">
-        <v>947.8338496229746</v>
+        <v>1452.671159796258</v>
       </c>
       <c r="X13" t="n">
-        <v>705.2699530687797</v>
+        <v>1210.107263242063</v>
       </c>
       <c r="Y13" t="n">
-        <v>478.9271847585218</v>
+        <v>1210.107263242063</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1238.088338440615</v>
+        <v>2533.780365848254</v>
       </c>
       <c r="C14" t="n">
-        <v>892.3138337223432</v>
+        <v>2106.879635861555</v>
       </c>
       <c r="D14" t="n">
-        <v>469.0212129073435</v>
+        <v>1683.587015046555</v>
       </c>
       <c r="E14" t="n">
-        <v>469.0212129073435</v>
+        <v>1257.610075194412</v>
       </c>
       <c r="F14" t="n">
-        <v>469.0212129073435</v>
+        <v>832.4858933838125</v>
       </c>
       <c r="G14" t="n">
-        <v>64.68215049679215</v>
+        <v>428.1468309732611</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679215</v>
+        <v>130.2784524472959</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K14" t="n">
-        <v>780.1904584722912</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L14" t="n">
-        <v>1580.632070870094</v>
+        <v>1029.701992498267</v>
       </c>
       <c r="M14" t="n">
-        <v>1580.632070870094</v>
+        <v>2033.988093917325</v>
       </c>
       <c r="N14" t="n">
-        <v>2381.073683267897</v>
+        <v>3010.239152404026</v>
       </c>
       <c r="O14" t="n">
-        <v>3181.515295665699</v>
+        <v>3855.383802554838</v>
       </c>
       <c r="P14" t="n">
-        <v>3181.515295665699</v>
+        <v>4430.20542956342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3181.515295665699</v>
+        <v>4886.290909067603</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949505</v>
       </c>
       <c r="S14" t="n">
-        <v>3129.740230712748</v>
+        <v>5003.847243949505</v>
       </c>
       <c r="T14" t="n">
-        <v>3129.740230712748</v>
+        <v>4782.921672994138</v>
       </c>
       <c r="U14" t="n">
-        <v>2871.38532130916</v>
+        <v>4524.56676359055</v>
       </c>
       <c r="V14" t="n">
-        <v>2871.38532130916</v>
+        <v>4167.0773487168</v>
       </c>
       <c r="W14" t="n">
-        <v>2474.993971609507</v>
+        <v>3770.685999017147</v>
       </c>
       <c r="X14" t="n">
-        <v>2063.273972777254</v>
+        <v>3358.966000184894</v>
       </c>
       <c r="Y14" t="n">
-        <v>1657.936702732145</v>
+        <v>2953.628730139785</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>608.7826918167198</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="M15" t="n">
-        <v>608.7826918167198</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N15" t="n">
-        <v>608.7826918167198</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O15" t="n">
-        <v>1409.224304214523</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1409.224304214523</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1147.863273021029</v>
+        <v>1012.482809511107</v>
       </c>
       <c r="C16" t="n">
-        <v>975.890709899945</v>
+        <v>840.5102463900225</v>
       </c>
       <c r="D16" t="n">
-        <v>812.5739370267157</v>
+        <v>840.5102463900225</v>
       </c>
       <c r="E16" t="n">
-        <v>646.3657311795693</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5039569541296</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2469872483618</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R16" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="T16" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="U16" t="n">
-        <v>2245.09517790992</v>
+        <v>1953.266910479596</v>
       </c>
       <c r="V16" t="n">
-        <v>2081.788310425035</v>
+        <v>1671.555443087625</v>
       </c>
       <c r="W16" t="n">
-        <v>1806.935906597548</v>
+        <v>1671.555443087625</v>
       </c>
       <c r="X16" t="n">
-        <v>1564.372010043353</v>
+        <v>1428.99154653343</v>
       </c>
       <c r="Y16" t="n">
-        <v>1338.029241733095</v>
+        <v>1202.648778223172</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5501,49 +5503,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5598,13 +5600,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1015214887346</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>985.454412532011</v>
+        <v>1067.07923602298</v>
       </c>
       <c r="C19" t="n">
-        <v>813.481849410927</v>
+        <v>895.1066729018962</v>
       </c>
       <c r="D19" t="n">
-        <v>650.1650765376977</v>
+        <v>731.7899000286669</v>
       </c>
       <c r="E19" t="n">
-        <v>650.1650765376977</v>
+        <v>565.5816941815204</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>393.7199199560808</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>227.462950250313</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1726.151869599499</v>
       </c>
       <c r="X19" t="n">
-        <v>985.454412532011</v>
+        <v>1483.587973045304</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.454412532011</v>
+        <v>1257.245204735046</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L20" t="n">
-        <v>1180.414480198223</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M20" t="n">
-        <v>2184.700581617281</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N20" t="n">
-        <v>3160.951640103982</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O20" t="n">
-        <v>4006.096290254794</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P20" t="n">
-        <v>4714.375569412722</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
         <v>5115.135670291427</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>4025.820723818557</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>5115.135670291427</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1085.715267670341</v>
+        <v>326.3817789554953</v>
       </c>
       <c r="C22" t="n">
-        <v>913.7427045492574</v>
+        <v>154.4092158344114</v>
       </c>
       <c r="D22" t="n">
-        <v>750.4259316760281</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E22" t="n">
-        <v>584.2177258288816</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>2112.580693338092</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>2019.640305074347</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1744.78790124686</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1502.224004692665</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>1275.881236382407</v>
+        <v>516.547747667561</v>
       </c>
     </row>
     <row r="23">
@@ -6005,10 +6007,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>913.8534934449018</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>741.8809303238178</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>578.5641574505885</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6172,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2112.580693338092</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1832.396244838396</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1832.396244838396</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1557.543841010909</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1330.362230467225</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1104.019462156967</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6242,10 +6244,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>941.9189991784958</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C28" t="n">
-        <v>769.9464360574118</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D28" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1931.212735664215</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1931.212735664215</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1649.501268272243</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1374.648864444756</v>
+        <v>1042.183688891842</v>
       </c>
       <c r="X28" t="n">
-        <v>1132.084967890562</v>
+        <v>799.6197923376471</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.084967890562</v>
+        <v>799.6197923376471</v>
       </c>
     </row>
     <row r="29">
@@ -6461,13 +6463,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>195.4640539534684</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1125.089101572745</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M29" t="n">
         <v>2129.375202991803</v>
@@ -6549,7 +6551,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3401.365604982158</v>
+        <v>756.1902889499656</v>
       </c>
       <c r="C31" t="n">
-        <v>3229.393041861074</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="D31" t="n">
-        <v>3066.076268987845</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="E31" t="n">
-        <v>2934.722642878299</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878299</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2248.976900478279</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497735</v>
+        <v>2078.841852997414</v>
       </c>
       <c r="T31" t="n">
-        <v>4654.622661723635</v>
+        <v>1835.502505223314</v>
       </c>
       <c r="U31" t="n">
-        <v>4374.43821322394</v>
+        <v>1555.318056723619</v>
       </c>
       <c r="V31" t="n">
-        <v>4092.726745831969</v>
+        <v>1273.606589331647</v>
       </c>
       <c r="W31" t="n">
-        <v>3817.874342004482</v>
+        <v>998.7541855041605</v>
       </c>
       <c r="X31" t="n">
-        <v>3817.874342004482</v>
+        <v>756.1902889499656</v>
       </c>
       <c r="Y31" t="n">
-        <v>3591.531573694224</v>
+        <v>756.1902889499656</v>
       </c>
     </row>
     <row r="32">
@@ -6701,22 +6703,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>195.4640539534684</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1125.089101572745</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
         <v>5115.135670291427</v>
@@ -6783,16 +6785,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>305.3113489363686</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3638.57018700705</v>
+        <v>919.5070618231949</v>
       </c>
       <c r="C34" t="n">
-        <v>3638.57018700705</v>
+        <v>747.5344987021109</v>
       </c>
       <c r="D34" t="n">
-        <v>3475.253414133821</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="E34" t="n">
-        <v>3309.045208286675</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F34" t="n">
-        <v>3137.183434061235</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G34" t="n">
-        <v>3034.491211138023</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4945.000622810562</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>4701.661275036462</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U34" t="n">
-        <v>4421.476826536767</v>
+        <v>1860.291162791684</v>
       </c>
       <c r="V34" t="n">
-        <v>4139.765359144795</v>
+        <v>1578.579695399713</v>
       </c>
       <c r="W34" t="n">
-        <v>3864.912955317308</v>
+        <v>1578.579695399713</v>
       </c>
       <c r="X34" t="n">
-        <v>3864.912955317308</v>
+        <v>1336.015798845518</v>
       </c>
       <c r="Y34" t="n">
-        <v>3638.57018700705</v>
+        <v>1109.673030535261</v>
       </c>
     </row>
     <row r="35">
@@ -6953,10 +6955,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787244</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7023,16 +7025,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3522.121816976392</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C37" t="n">
-        <v>3350.149253855308</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="D37" t="n">
-        <v>3350.149253855308</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="E37" t="n">
-        <v>3350.149253855308</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="F37" t="n">
-        <v>3178.287479629868</v>
+        <v>201.5586180428797</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723635</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>4654.622661723635</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>4372.911194331664</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>4098.058790504177</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>3938.630553998716</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>3712.287785688457</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,10 +7162,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7172,37 +7174,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7214,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7242,7 +7244,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
@@ -7260,19 +7262,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>739.6560874287652</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1019.275630082919</v>
+        <v>612.3940204581199</v>
       </c>
       <c r="C40" t="n">
-        <v>847.303066961835</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="D40" t="n">
-        <v>683.9862940886057</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7363,19 +7365,19 @@
         <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1818.403397856572</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1536.691930464601</v>
+        <v>1356.15308915006</v>
       </c>
       <c r="W40" t="n">
-        <v>1261.839526637114</v>
+        <v>1081.300685322573</v>
       </c>
       <c r="X40" t="n">
-        <v>1019.275630082919</v>
+        <v>838.7367887683779</v>
       </c>
       <c r="Y40" t="n">
-        <v>1019.275630082919</v>
+        <v>612.3940204581199</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1997.201891670715</v>
+        <v>2429.413071721393</v>
       </c>
       <c r="C41" t="n">
-        <v>1570.301161684015</v>
+        <v>2002.512341734693</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.122334570086</v>
+        <v>1579.219720919693</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1453947179433</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F41" t="n">
-        <v>469.0212129073435</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68215049679215</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>780.1904584722912</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L41" t="n">
-        <v>1580.632070870094</v>
+        <v>1029.701992498267</v>
       </c>
       <c r="M41" t="n">
-        <v>2381.073683267897</v>
+        <v>2033.988093917325</v>
       </c>
       <c r="N41" t="n">
-        <v>3181.515295665699</v>
+        <v>3010.239152404026</v>
       </c>
       <c r="O41" t="n">
-        <v>3181.515295665699</v>
+        <v>3855.383802554838</v>
       </c>
       <c r="P41" t="n">
-        <v>3181.515295665699</v>
+        <v>4430.205429563418</v>
       </c>
       <c r="Q41" t="n">
-        <v>3181.515295665699</v>
+        <v>4886.290909067601</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822644</v>
       </c>
       <c r="T41" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867277</v>
       </c>
       <c r="U41" t="n">
-        <v>3234.107524839607</v>
+        <v>4420.199469463689</v>
       </c>
       <c r="V41" t="n">
-        <v>3234.107524839607</v>
+        <v>4062.710054589938</v>
       </c>
       <c r="W41" t="n">
-        <v>3234.107524839607</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>2822.387526007355</v>
+        <v>3254.598706058033</v>
       </c>
       <c r="Y41" t="n">
-        <v>2417.050255962245</v>
+        <v>2849.261436012923</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>272.4865562816963</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N42" t="n">
-        <v>1072.928168679499</v>
+        <v>1189.39189135186</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1742.791935515696</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="C43" t="n">
-        <v>1570.819372394612</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="D43" t="n">
-        <v>1570.819372394612</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="E43" t="n">
-        <v>1404.611166547465</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="F43" t="n">
-        <v>1319.720035391971</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="G43" t="n">
-        <v>1153.463065686203</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H43" t="n">
-        <v>1153.463065686203</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
-        <v>1053.694497426479</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>1111.185825650637</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>1337.713426856474</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>1692.402748150895</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>2083.588543121146</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>2461.080053997181</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>2816.508182676945</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>3107.107394598846</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>3234.107524839607</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>3187.068911526781</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S43" t="n">
-        <v>3016.933864045915</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T43" t="n">
-        <v>2773.594516271815</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U43" t="n">
-        <v>2493.410067772119</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V43" t="n">
-        <v>2211.698600380148</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W43" t="n">
-        <v>2211.698600380148</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="X43" t="n">
-        <v>1969.134703825954</v>
+        <v>740.6647474509774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1742.791935515696</v>
+        <v>514.3219791407195</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2098.741872743728</v>
+        <v>2538.475729536477</v>
       </c>
       <c r="C44" t="n">
-        <v>1671.841142757028</v>
+        <v>2111.574999549777</v>
       </c>
       <c r="D44" t="n">
-        <v>1248.548521942028</v>
+        <v>1688.282378734777</v>
       </c>
       <c r="E44" t="n">
-        <v>822.5715820898859</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>397.4474002792861</v>
+        <v>837.1812570720354</v>
       </c>
       <c r="G44" t="n">
-        <v>397.4474002792861</v>
+        <v>432.842194661484</v>
       </c>
       <c r="H44" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679215</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>64.68215049679215</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>865.123762894595</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>1665.565375292398</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N44" t="n">
-        <v>2466.006987690201</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O44" t="n">
-        <v>3234.107524839607</v>
+        <v>4547.76176444532</v>
       </c>
       <c r="P44" t="n">
-        <v>3234.107524839607</v>
+        <v>4547.76176444532</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T44" t="n">
-        <v>3134.434561312596</v>
+        <v>4787.617036682361</v>
       </c>
       <c r="U44" t="n">
-        <v>2876.079651909008</v>
+        <v>4529.262127278773</v>
       </c>
       <c r="V44" t="n">
-        <v>2518.590237035258</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>2518.590237035258</v>
+        <v>3775.381362705369</v>
       </c>
       <c r="X44" t="n">
-        <v>2518.590237035258</v>
+        <v>3363.661363873116</v>
       </c>
       <c r="Y44" t="n">
-        <v>2518.590237035258</v>
+        <v>2958.324093828007</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1992.543385290553</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>1875.037481808058</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>1771.197523323343</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>1666.49558959628</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>1572.849759279184</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>1478.795987496788</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>1425.419894259098</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>1425.419894259098</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>1425.419894259098</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K45" t="n">
-        <v>1425.419894259098</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="L45" t="n">
-        <v>1425.419894259098</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="M45" t="n">
-        <v>2225.861506656901</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="N45" t="n">
-        <v>3026.303119054704</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="O45" t="n">
-        <v>3234.107524839607</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="P45" t="n">
-        <v>3234.107524839607</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q45" t="n">
-        <v>3234.107524839607</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R45" t="n">
-        <v>3234.107524839607</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>3152.783277400862</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>3010.90334169854</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>2826.135145618177</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>2621.162006757443</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>2424.64062959066</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>2261.163283357324</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>2121.470394710616</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>336.4232818776002</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C46" t="n">
-        <v>164.4507187565162</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D46" t="n">
-        <v>164.4507187565162</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E46" t="n">
-        <v>164.4507187565162</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F46" t="n">
-        <v>164.4507187565162</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
-        <v>164.4507187565162</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2027.921517116229</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T46" t="n">
-        <v>1784.582169342129</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U46" t="n">
-        <v>1504.397720842433</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V46" t="n">
-        <v>1270.348319281606</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W46" t="n">
-        <v>995.4959154541187</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X46" t="n">
-        <v>752.9320188999238</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y46" t="n">
-        <v>526.5892505896659</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>569.51856287543</v>
       </c>
       <c r="L2" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>84.86874406016992</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8064,19 +8066,19 @@
         <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>181.3705437721212</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>181.0208015487716</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8225,19 +8227,19 @@
         <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>84.86874406016992</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,25 +8291,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>179.6167914733348</v>
       </c>
       <c r="O6" t="n">
-        <v>455.7096961566975</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
@@ -8392,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8455,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>84.50867025038121</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>205.7998844961774</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
@@ -8474,7 +8476,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
@@ -8538,7 +8540,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>372.7867989824566</v>
+        <v>181.3705437721211</v>
       </c>
       <c r="N9" t="n">
         <v>577.5708413291358</v>
@@ -8547,13 +8549,13 @@
         <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,25 +8692,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>480.3950677006051</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425246</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093335</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>445.6509501490526</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8763,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8775,13 +8777,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>831.6236617222297</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>682.4836532826455</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>742.2891030007354</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8790,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>618.2032678795058</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>88.15611370682473</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,22 +9011,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>572.1115930979948</v>
+        <v>749.1541615704314</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>831.698770932124</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>129.1350140843319</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,16 +9248,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>104.5829721389275</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9419,7 +9421,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>440.9328573103608</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9486,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>129.8669649843445</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>995.9774475394116</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10349,7 +10351,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>129.8669649843445</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10431,19 +10433,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>124.3756766890881</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>464.8736204150517</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,7 +10673,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>280.9020403556215</v>
       </c>
       <c r="N36" t="n">
         <v>1121.661155963915</v>
@@ -10683,7 +10685,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10838,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602115997</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10908,7 +10910,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>666.8880674041833</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N39" t="n">
         <v>1121.661155963915</v>
@@ -10923,7 +10925,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>618.203267879504</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>88.15611370682473</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,13 +11147,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>233.0002206990998</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234435</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>831.698770932124</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>813.250087789768</v>
+        <v>501.4423181932963</v>
       </c>
       <c r="P44" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>829.8699094234435</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>233.0753299089938</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>693.0751584803598</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>73.42412869297004</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>305.5844508283855</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>187.3654866184761</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>80.31496301574435</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>4.648410051340733</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>7.383900168702183</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -23707,13 +23709,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>33.48300537539896</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>117.2205539080144</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>110.0981677402</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>186.8833683369438</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24412,22 +24414,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>15.22846315040601</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>61.35167619922049</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>56.16198359623257</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>34.506033940224</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>13.16677524242776</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>62.92909931473002</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>27.61596877375547</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>66.33105441802952</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.30430344824657</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>227.0530357843534</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>48.31958288295749</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>171.3826557640596</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>73.4241286929701</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>86.100936639246</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>41.52700769166989</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>120.0400813540721</v>
+        <v>4.64841005134187</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26032,7 +26034,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26041,7 +26043,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>47.18544517283252</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>406535.0643568956</v>
+        <v>539860.9244177836</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>406535.0643568956</v>
+        <v>539860.9244177837</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>548244.9963785588</v>
+        <v>548244.9963785589</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>548244.9963785589</v>
+        <v>548244.996378559</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>548244.996378559</v>
+        <v>548244.9963785589</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>548244.996378559</v>
+        <v>548244.9963785588</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>548244.996378559</v>
+        <v>548244.9963785589</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>548244.9963785588</v>
+        <v>548244.9963785589</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>406535.0643568957</v>
+        <v>539860.9244177837</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>406535.0643568957</v>
+        <v>539860.9244177837</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>465954.1344089305</v>
       </c>
       <c r="C2" t="n">
-        <v>465954.1344089304</v>
+        <v>465954.1344089303</v>
       </c>
       <c r="D2" t="n">
-        <v>465954.1344089304</v>
+        <v>465954.1344089305</v>
       </c>
       <c r="E2" t="n">
-        <v>333410.0096021966</v>
+        <v>442748.66356079</v>
       </c>
       <c r="F2" t="n">
-        <v>333410.0096021966</v>
+        <v>442748.6635607902</v>
       </c>
       <c r="G2" t="n">
+        <v>449624.322509958</v>
+      </c>
+      <c r="H2" t="n">
         <v>449624.3225099579</v>
       </c>
-      <c r="H2" t="n">
-        <v>449624.3225099578</v>
-      </c>
       <c r="I2" t="n">
+        <v>449624.322509958</v>
+      </c>
+      <c r="J2" t="n">
+        <v>449624.3225099581</v>
+      </c>
+      <c r="K2" t="n">
+        <v>449624.322509958</v>
+      </c>
+      <c r="L2" t="n">
+        <v>449624.322509958</v>
+      </c>
+      <c r="M2" t="n">
         <v>449624.3225099579</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>449624.3225099579</v>
       </c>
-      <c r="K2" t="n">
-        <v>449624.3225099579</v>
-      </c>
-      <c r="L2" t="n">
-        <v>449624.3225099578</v>
-      </c>
-      <c r="M2" t="n">
-        <v>449624.322509958</v>
-      </c>
-      <c r="N2" t="n">
-        <v>449624.322509958</v>
-      </c>
       <c r="O2" t="n">
-        <v>333410.0096021966</v>
+        <v>442748.66356079</v>
       </c>
       <c r="P2" t="n">
-        <v>333410.0096021968</v>
+        <v>442748.66356079</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346219</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481421</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537384</v>
+        <v>173130.4912056395</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148130.4125690141</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="C4" t="n">
         <v>148130.4125690142</v>
@@ -26424,10 +26426,10 @@
         <v>148130.4125690142</v>
       </c>
       <c r="E4" t="n">
-        <v>11188.4120876085</v>
+        <v>14883.79308177073</v>
       </c>
       <c r="F4" t="n">
-        <v>11188.4120876085</v>
+        <v>14883.79308177073</v>
       </c>
       <c r="G4" t="n">
         <v>15116.17365792744</v>
@@ -26442,22 +26444,22 @@
         <v>15116.17365792743</v>
       </c>
       <c r="K4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="L4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="M4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="N4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="O4" t="n">
-        <v>11188.4120876085</v>
+        <v>14883.79308177073</v>
       </c>
       <c r="P4" t="n">
-        <v>11188.4120876085</v>
+        <v>14883.79308177073</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756202</v>
+        <v>76058.47810803245</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803248</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26503,13 +26505,13 @@
         <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803245</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803245</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63972.73738775103</v>
+        <v>63972.737387751</v>
       </c>
       <c r="C6" t="n">
         <v>250377.4708024881</v>
       </c>
       <c r="D6" t="n">
-        <v>250377.4708024881</v>
+        <v>250377.4708024882</v>
       </c>
       <c r="E6" t="n">
-        <v>197732.2119835639</v>
+        <v>144374.1047544259</v>
       </c>
       <c r="F6" t="n">
-        <v>273063.1631370261</v>
+        <v>351806.392370987</v>
       </c>
       <c r="G6" t="n">
-        <v>227867.6868520602</v>
+        <v>349132.4645801195</v>
       </c>
       <c r="H6" t="n">
-        <v>356758.0866636007</v>
+        <v>356758.0866636008</v>
       </c>
       <c r="I6" t="n">
-        <v>356758.0866636008</v>
+        <v>356758.0866636009</v>
       </c>
       <c r="J6" t="n">
-        <v>211224.4167287843</v>
+        <v>211224.4167287844</v>
       </c>
       <c r="K6" t="n">
-        <v>356758.0866636008</v>
+        <v>356758.0866636009</v>
       </c>
       <c r="L6" t="n">
-        <v>356758.0866636007</v>
+        <v>356758.0866636009</v>
       </c>
       <c r="M6" t="n">
-        <v>293884.149698227</v>
+        <v>183627.5954579613</v>
       </c>
       <c r="N6" t="n">
         <v>356758.0866636009</v>
       </c>
       <c r="O6" t="n">
-        <v>273063.1631370261</v>
+        <v>351806.3923709869</v>
       </c>
       <c r="P6" t="n">
-        <v>273063.1631370263</v>
+        <v>351806.3923709868</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099017</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26823,13 +26825,13 @@
         <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.7339978717818</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.257036362955</v>
+        <v>27.82210658548049</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.7339978717818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.7339978717818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.257036362955</v>
+        <v>27.82210658548049</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>101.1659342747065</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27430,16 +27432,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>115.5631513979317</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>165.8738419635243</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>63.52994056050366</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -27549,13 +27551,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>101.1659342747063</v>
+        <v>135.7138368186698</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27777,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27822,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>125.8003826660204</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>169.7948209536251</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>18.02540993598092</v>
       </c>
       <c r="E8" t="n">
-        <v>296.8468361521188</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27904,7 +27906,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27913,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>162.2770323843603</v>
       </c>
       <c r="X10" t="n">
-        <v>70.15473904492188</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="L2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>158.2737632597932</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34945,19 +34947,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>263.0232516395698</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>48.74406945557187</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,25 +35011,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>158.2737632597932</v>
+      </c>
+      <c r="O6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O6" t="n">
-        <v>432.5378064344753</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
@@ -35112,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35175,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
@@ -35194,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,7 +35260,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>349.6900184701286</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="N9" t="n">
         <v>556.2278131155941</v>
@@ -35267,13 +35269,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>444.6304669057958</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099017</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099017</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>408.2599907930285</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>808.5268812099017</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>661.1406250691039</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>580.6279060692746</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>53.12346381202826</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>549.5965063837652</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>94.10236418953542</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>83.23994392538586</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36139,7 +36141,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>404.8081827057627</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>94.10236418953517</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>958.5461846399799</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>94.10236418953517</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>86.80031487885682</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37393,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>257.8052598432935</v>
       </c>
       <c r="N36" t="n">
         <v>1100.318127750374</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37558,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013684</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37628,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>643.7912868918553</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N39" t="n">
         <v>1100.318127750374</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>580.6279060692727</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>53.12346381202826</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>209.9034401867719</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099018</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>808.5268812099018</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>775.859128433744</v>
+        <v>464.0513588372722</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>209.9034401867715</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>671.3043172755312</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2232064.823621014</v>
+        <v>2231346.833506154</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602537</v>
+        <v>11857191.11602538</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760741</v>
+        <v>698313.6830760739</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6354461.59659402</v>
+        <v>6354461.596594018</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>249.8385001365876</v>
       </c>
       <c r="E2" t="n">
-        <v>320.5512361789145</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -822,19 +822,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>98.15366458399333</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>260.4446813871647</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>340.9917477555401</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>120.057523490882</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>107.5877830610737</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1135,10 +1135,10 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>401.0342846708688</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -1147,10 +1147,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>271.683824034595</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>109.8268474048518</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1387,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>221.4655660477355</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>77.66082860342324</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>91.52886609957531</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>314.6596914499</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>29.89949249262277</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>157.1622236199728</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>116.167611819079</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1852,7 +1852,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -2007,7 +2007,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -2019,10 +2019,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>25.13775189891279</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>46.19803402753342</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2095,7 +2095,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
@@ -2244,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>51.58543740429698</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271525</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2718,16 +2718,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>46.19803402753026</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2772,16 +2772,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>215.9418961929795</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2964,10 +2964,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>33.40145193727082</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3192,19 +3192,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>157.6386052024379</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>249.7666352409433</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3426,10 +3426,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>98.26334559068066</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>41.27914894746804</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3486,10 +3486,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3511,7 +3511,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>50.92796937556015</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>230.5747698350939</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3748,7 +3748,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>348.2930417606509</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>102.0412378013739</v>
       </c>
       <c r="G43" t="n">
-        <v>123.0673923170403</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>29.89949249262188</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>214.0679051944713</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4140,13 +4140,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>98.15366458399244</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>96.44420510686383</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>729.6507098898962</v>
+        <v>1575.160856418926</v>
       </c>
       <c r="C2" t="n">
-        <v>706.7903839436004</v>
+        <v>1552.30053047263</v>
       </c>
       <c r="D2" t="n">
-        <v>687.5381671690047</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E2" t="n">
-        <v>363.7490397155557</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F2" t="n">
-        <v>342.66526194536</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G2" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
         <v>44.49822504924753</v>
@@ -4330,28 +4330,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>572.914647509062</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L2" t="n">
-        <v>1123.5801824935</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M2" t="n">
-        <v>1674.245717477938</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="N2" t="n">
-        <v>1674.245717477938</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O2" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
@@ -4360,22 +4360,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>1966.556343058789</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V2" t="n">
-        <v>1966.556343058789</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W2" t="n">
-        <v>1966.556343058789</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="X2" t="n">
-        <v>1554.836344226536</v>
+        <v>1592.265682674757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1149.499074181426</v>
+        <v>1590.968816670051</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L3" t="n">
-        <v>595.1637600336857</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M3" t="n">
-        <v>595.1637600336857</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N3" t="n">
-        <v>595.1637600336857</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O3" t="n">
-        <v>1145.829295018124</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P3" t="n">
-        <v>1696.494830002562</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>315.6159039117389</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C4" t="n">
-        <v>143.6433407906549</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D4" t="n">
-        <v>44.49822504924753</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E4" t="n">
-        <v>44.49822504924753</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F4" t="n">
-        <v>44.49822504924753</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G4" t="n">
-        <v>44.49822504924753</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H4" t="n">
         <v>44.49822504924753</v>
@@ -4506,7 +4506,7 @@
         <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
         <v>2224.911252462377</v>
@@ -4515,25 +4515,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>1811.436857207411</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U4" t="n">
-        <v>1531.252408707716</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V4" t="n">
-        <v>1249.540941315744</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W4" t="n">
-        <v>974.6885374882575</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X4" t="n">
-        <v>732.1246409340625</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y4" t="n">
-        <v>505.7818726238046</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2078.856605666331</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C5" t="n">
-        <v>2055.996279720035</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D5" t="n">
-        <v>1632.703658905035</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>1206.726719052893</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>781.6025372422929</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,10 +4570,10 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
         <v>957.7672188505812</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2103.641026714011</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>2103.641026714011</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W5" t="n">
-        <v>2103.641026714011</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X5" t="n">
-        <v>2095.961431922162</v>
+        <v>879.7031186113101</v>
       </c>
       <c r="Y5" t="n">
-        <v>2094.664565917457</v>
+        <v>474.3658485662004</v>
       </c>
     </row>
     <row r="6">
@@ -4652,22 +4652,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="M6" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="N6" t="n">
         <v>595.1637600336857</v>
       </c>
-      <c r="M6" t="n">
-        <v>595.1637600336857</v>
-      </c>
-      <c r="N6" t="n">
-        <v>751.8547856608809</v>
-      </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>964.3625747002551</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>792.3900115791711</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
         <v>792.3900115791711</v>
@@ -4743,34 +4743,34 @@
         <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1655.723715550066</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V7" t="n">
-        <v>1655.723715550066</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1380.871311722579</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1380.871311722579</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>1154.528543412321</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1621.711845585579</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C8" t="n">
-        <v>1598.851519639283</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.766383608102</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E8" t="n">
-        <v>767.7894437559598</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4804,25 +4804,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>572.914647509062</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1674.245717477938</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O8" t="n">
-        <v>2224.911252462377</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>1646.496266633259</v>
+        <v>1366.835372891113</v>
       </c>
       <c r="W8" t="n">
-        <v>1646.496266633259</v>
+        <v>1366.835372891113</v>
       </c>
       <c r="X8" t="n">
-        <v>1638.81667184141</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y8" t="n">
-        <v>1637.519805836705</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L9" t="n">
-        <v>44.49822504924753</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M9" t="n">
-        <v>201.1892506764427</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N9" t="n">
-        <v>751.8547856608809</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>2177.872639149549</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1897.688190649853</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1897.688190649853</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.413071721393</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C11" t="n">
-        <v>2002.512341734693</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D11" t="n">
-        <v>1579.219720919693</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.242781067551</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F11" t="n">
-        <v>728.118599256951</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G11" t="n">
-        <v>323.7795368463997</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H11" t="n">
         <v>100.0769448789901</v>
@@ -5041,52 +5041,52 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>540.2611071157279</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1469.886154735005</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2474.172256154063</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N11" t="n">
-        <v>3450.423314640764</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>4295.567964791576</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>5003.847243949504</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
         <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>4899.479949822644</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T11" t="n">
-        <v>4678.554378867277</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U11" t="n">
-        <v>4420.199469463689</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V11" t="n">
-        <v>4062.710054589938</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W11" t="n">
-        <v>3666.318704890286</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X11" t="n">
-        <v>3254.598706058033</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012923</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M12" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N12" t="n">
-        <v>1196.838534313772</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O12" t="n">
         <v>1908.7645754595</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1019.941294529998</v>
+        <v>494.2910579095189</v>
       </c>
       <c r="C13" t="n">
-        <v>847.9687314089136</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="D13" t="n">
-        <v>847.9687314089136</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="E13" t="n">
-        <v>681.7605255617672</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="F13" t="n">
-        <v>509.8987513363276</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="G13" t="n">
-        <v>343.6417816305598</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
@@ -5226,25 +5226,25 @@
         <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498426</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724326</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U13" t="n">
-        <v>1819.976963724326</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V13" t="n">
-        <v>1727.523563623745</v>
+        <v>1428.216095313524</v>
       </c>
       <c r="W13" t="n">
-        <v>1452.671159796258</v>
+        <v>1153.363691486037</v>
       </c>
       <c r="X13" t="n">
-        <v>1210.107263242063</v>
+        <v>910.7997949318425</v>
       </c>
       <c r="Y13" t="n">
-        <v>1210.107263242063</v>
+        <v>684.4570266215845</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2533.780365848254</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>2106.879635861555</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>1683.587015046555</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>1257.610075194412</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>832.4858933838125</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>428.1468309732611</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>130.2784524472959</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>100.0769448789901</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1029.701992498267</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2033.988093917325</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>3010.239152404026</v>
+        <v>4041.14625891679</v>
       </c>
       <c r="O14" t="n">
-        <v>3855.383802554838</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="P14" t="n">
-        <v>4430.20542956342</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="Q14" t="n">
-        <v>4886.290909067603</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>5003.847243949505</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>5003.847243949505</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4782.921672994138</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>4524.56676359055</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>4167.0773487168</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>3770.685999017147</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>3358.966000184894</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>2953.628730139785</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5339,10 +5339,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
         <v>247.5068098990765</v>
@@ -5363,13 +5363,13 @@
         <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>819.4496289866299</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>819.4496289866299</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N15" t="n">
-        <v>1908.7645754595</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O15" t="n">
         <v>1908.7645754595</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1012.482809511107</v>
+        <v>1019.941294529998</v>
       </c>
       <c r="C16" t="n">
-        <v>840.5102463900225</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="D16" t="n">
-        <v>840.5102463900225</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
         <v>681.7605255617672</v>
@@ -5442,7 +5442,7 @@
         <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
         <v>1129.970990573657</v>
@@ -5454,34 +5454,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2233.451358979292</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T16" t="n">
-        <v>2233.451358979292</v>
+        <v>1993.013902771779</v>
       </c>
       <c r="U16" t="n">
-        <v>1953.266910479596</v>
+        <v>1993.013902771779</v>
       </c>
       <c r="V16" t="n">
-        <v>1671.555443087625</v>
+        <v>1711.302435379808</v>
       </c>
       <c r="W16" t="n">
-        <v>1671.555443087625</v>
+        <v>1436.450031552321</v>
       </c>
       <c r="X16" t="n">
-        <v>1428.99154653343</v>
+        <v>1436.450031552321</v>
       </c>
       <c r="Y16" t="n">
-        <v>1202.648778223172</v>
+        <v>1210.107263242063</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
         <v>1264.531207409474</v>
@@ -5515,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2036.213862444163</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3012.464920930865</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>3857.609571081677</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4565.888850239604</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>5021.974329743787</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5600,22 +5600,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1067.07923602298</v>
+        <v>778.6022263052665</v>
       </c>
       <c r="C19" t="n">
-        <v>895.1066729018962</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="D19" t="n">
-        <v>731.7899000286669</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E19" t="n">
-        <v>565.5816941815204</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F19" t="n">
-        <v>393.7199199560808</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
-        <v>227.462950250313</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5691,34 +5691,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2236.051059983068</v>
       </c>
       <c r="T19" t="n">
-        <v>2282.715740818957</v>
+        <v>1992.711712208968</v>
       </c>
       <c r="U19" t="n">
-        <v>2282.715740818957</v>
+        <v>1712.527263709272</v>
       </c>
       <c r="V19" t="n">
-        <v>2001.004273426986</v>
+        <v>1712.527263709272</v>
       </c>
       <c r="W19" t="n">
-        <v>1726.151869599499</v>
+        <v>1437.674859881785</v>
       </c>
       <c r="X19" t="n">
-        <v>1483.587973045304</v>
+        <v>1195.11096332759</v>
       </c>
       <c r="Y19" t="n">
-        <v>1257.245204735046</v>
+        <v>968.7681950173321</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5755,25 +5755,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>3561.711740982687</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.8563911335</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>326.3817789554953</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>154.4092158344114</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.547747667561</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -6001,10 +6001,10 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P23" t="n">
         <v>5115.135670291427</v>
@@ -6074,10 +6074,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6244,10 +6244,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>609.4538236255814</v>
+        <v>778.6022263052665</v>
       </c>
       <c r="C28" t="n">
-        <v>437.4812605044974</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2236.051059983068</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.711712208968</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.527263709272</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1712.527263709272</v>
       </c>
       <c r="W28" t="n">
-        <v>1042.183688891842</v>
+        <v>1437.674859881785</v>
       </c>
       <c r="X28" t="n">
-        <v>799.6197923376471</v>
+        <v>1195.11096332759</v>
       </c>
       <c r="Y28" t="n">
-        <v>799.6197923376471</v>
+        <v>968.7681950173321</v>
       </c>
     </row>
     <row r="29">
@@ -6469,22 +6469,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>756.1902889499656</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2248.976900478279</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2078.841852997414</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1835.502505223314</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1555.318056723619</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1273.606589331647</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>998.7541855041605</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>756.1902889499656</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>756.1902889499656</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6706,22 +6706,22 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>919.5070618231949</v>
+        <v>599.7631605785773</v>
       </c>
       <c r="C34" t="n">
-        <v>747.5344987021109</v>
+        <v>427.7905974574933</v>
       </c>
       <c r="D34" t="n">
-        <v>584.2177258288816</v>
+        <v>427.7905974574933</v>
       </c>
       <c r="E34" t="n">
-        <v>584.2177258288816</v>
+        <v>427.7905974574933</v>
       </c>
       <c r="F34" t="n">
-        <v>412.355951603442</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G34" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
         <v>102.3027134058285</v>
@@ -6888,22 +6888,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>2112.580693338092</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1860.291162791684</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1578.579695399713</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>1578.579695399713</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>1336.015798845518</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>1109.673030535261</v>
+        <v>789.9291292906429</v>
       </c>
     </row>
     <row r="35">
@@ -6946,16 +6946,16 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
         <v>4997.579335409525</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M36" t="n">
-        <v>357.5299206506891</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>373.4203922683193</v>
+        <v>1019.275630082919</v>
       </c>
       <c r="C37" t="n">
-        <v>373.4203922683193</v>
+        <v>847.303066961835</v>
       </c>
       <c r="D37" t="n">
-        <v>373.4203922683193</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E37" t="n">
-        <v>373.4203922683193</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>201.5586180428797</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2241.019630771009</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2241.019630771009</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>1997.680282996909</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1717.495834497214</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>1435.784367105243</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.493025844838</v>
+        <v>1435.784367105243</v>
       </c>
       <c r="X37" t="n">
-        <v>789.9291292906429</v>
+        <v>1435.784367105243</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.5863609803849</v>
+        <v>1209.441598794985</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
         <v>435.0679631883225</v>
@@ -7174,7 +7174,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
@@ -7183,43 +7183,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291425</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>612.3940204581199</v>
+        <v>655.1318596602905</v>
       </c>
       <c r="C40" t="n">
-        <v>440.4214573370359</v>
+        <v>655.1318596602905</v>
       </c>
       <c r="D40" t="n">
-        <v>440.4214573370359</v>
+        <v>491.8150867870612</v>
       </c>
       <c r="E40" t="n">
-        <v>440.4214573370359</v>
+        <v>325.6068809399147</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>153.7451067144752</v>
       </c>
       <c r="G40" t="n">
         <v>102.3027134058285</v>
@@ -7332,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7368,16 +7368,16 @@
         <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1356.15308915006</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W40" t="n">
-        <v>1081.300685322573</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X40" t="n">
-        <v>838.7367887683779</v>
+        <v>1071.640596682614</v>
       </c>
       <c r="Y40" t="n">
-        <v>612.3940204581199</v>
+        <v>845.2978283723562</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2429.413071721393</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C41" t="n">
-        <v>2002.512341734693</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D41" t="n">
-        <v>1579.219720919693</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E41" t="n">
         <v>1227.408567626107</v>
@@ -7414,49 +7414,49 @@
         <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>100.0769448789901</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L41" t="n">
-        <v>1029.701992498267</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M41" t="n">
-        <v>2033.988093917325</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N41" t="n">
-        <v>3010.239152404026</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>3855.383802554838</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>4430.205429563418</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>4886.290909067601</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
         <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822644</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.554378867277</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.199469463689</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V41" t="n">
-        <v>4062.710054589938</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W41" t="n">
-        <v>3666.318704890286</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X41" t="n">
-        <v>3254.598706058033</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y41" t="n">
-        <v>2849.261436012923</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K42" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L42" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M42" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N42" t="n">
-        <v>1189.39189135186</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O42" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="P42" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q42" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
         <v>1908.7645754595</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.1560104286538</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C43" t="n">
-        <v>324.1560104286538</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="D43" t="n">
-        <v>324.1560104286538</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="E43" t="n">
-        <v>324.1560104286538</v>
+        <v>203.1489022541153</v>
       </c>
       <c r="F43" t="n">
-        <v>324.1560104286538</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G43" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
         <v>100.0769448789901</v>
@@ -7593,28 +7593,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2063.316311498426</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>1819.976963724326</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U43" t="n">
-        <v>1539.792515224631</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V43" t="n">
-        <v>1258.081047832659</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W43" t="n">
-        <v>983.2286440051723</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X43" t="n">
-        <v>740.6647474509774</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y43" t="n">
-        <v>514.3219791407195</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2538.475729536477</v>
+        <v>2533.780365848253</v>
       </c>
       <c r="C44" t="n">
-        <v>2111.574999549777</v>
+        <v>2106.879635861554</v>
       </c>
       <c r="D44" t="n">
-        <v>1688.282378734777</v>
+        <v>1683.587015046554</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.305438882635</v>
+        <v>1257.610075194411</v>
       </c>
       <c r="F44" t="n">
-        <v>837.1812570720354</v>
+        <v>832.4858933838116</v>
       </c>
       <c r="G44" t="n">
-        <v>432.842194661484</v>
+        <v>428.1468309732602</v>
       </c>
       <c r="H44" t="n">
-        <v>134.9738161355189</v>
+        <v>130.278452447295</v>
       </c>
       <c r="I44" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>462.6804036958856</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>1178.188711671385</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L44" t="n">
-        <v>2107.813759290661</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M44" t="n">
-        <v>3112.09986070972</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N44" t="n">
-        <v>4088.350919196421</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>4547.76176444532</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>4547.76176444532</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
         <v>5003.847243949504</v>
@@ -7678,22 +7678,22 @@
         <v>5003.847243949504</v>
       </c>
       <c r="T44" t="n">
-        <v>4787.617036682361</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U44" t="n">
-        <v>4529.262127278773</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V44" t="n">
-        <v>4171.772712405023</v>
+        <v>4167.077348716799</v>
       </c>
       <c r="W44" t="n">
-        <v>3775.381362705369</v>
+        <v>3770.685999017146</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.661363873116</v>
+        <v>3358.966000184893</v>
       </c>
       <c r="Y44" t="n">
-        <v>2958.324093828007</v>
+        <v>2953.628730139784</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>107.5235878409019</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
-        <v>698.0085144092415</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L45" t="n">
-        <v>698.0085144092415</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="M45" t="n">
-        <v>698.0085144092415</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="N45" t="n">
-        <v>698.0085144092415</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="O45" t="n">
-        <v>698.0085144092415</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="P45" t="n">
         <v>1362.599788512017</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>443.9112822255137</v>
+        <v>371.1946237414806</v>
       </c>
       <c r="C46" t="n">
-        <v>271.9387191044297</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="D46" t="n">
-        <v>271.9387191044297</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="E46" t="n">
-        <v>271.9387191044297</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="F46" t="n">
         <v>100.0769448789901</v>
@@ -7833,25 +7833,25 @@
         <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2183.071583295286</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T46" t="n">
-        <v>1939.732235521186</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U46" t="n">
-        <v>1659.54778702149</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V46" t="n">
-        <v>1377.836319629519</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W46" t="n">
-        <v>1102.983915802032</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X46" t="n">
-        <v>860.4200192478372</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="Y46" t="n">
-        <v>634.0772509375793</v>
+        <v>561.3605924535462</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>569.51856287543</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L2" t="n">
         <v>594.539855548217</v>
@@ -7993,16 +7993,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
@@ -8072,16 +8072,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>181.0208015487716</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8154,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>315.915358154857</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,13 +8218,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
@@ -8300,13 +8300,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>179.6167914733348</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
         <v>579.3997028378163</v>
@@ -8315,10 +8315,10 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>98.17301358442491</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8391,10 +8391,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.9153581548562</v>
+        <v>315.915358154857</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>205.7998844961774</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
@@ -8467,13 +8467,13 @@
         <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>110.6369203512731</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8534,22 +8534,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3705437721211</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>480.3950677006051</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,10 +8710,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
@@ -8780,10 +8780,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O12" t="n">
-        <v>742.2891030007354</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
@@ -8938,16 +8938,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>975.7103280941128</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>618.2032678795058</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9011,16 +9011,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>749.1541615704314</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>129.1350140843319</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,13 +9248,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>921.9548738586921</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9266,7 +9266,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9412,7 +9412,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>736.7071336234585</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9424,7 +9424,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9488,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>742.2139937908412</v>
       </c>
       <c r="N21" t="n">
-        <v>949.8342934347922</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9649,13 +9649,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>855.4509062314407</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9722,13 +9722,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,10 +10117,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>995.9774475394116</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10448,10 +10448,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>464.8736204150517</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M36" t="n">
-        <v>280.9020403556215</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10688,7 +10688,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>218.8019602115997</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,13 +11062,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>194.3202945097473</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11077,7 +11077,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>618.203267879504</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11150,19 +11150,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>749.810964578424</v>
+        <v>420.0342986345299</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,22 +11305,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>194.3202945097473</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>501.4423181932963</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265373</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11393,7 +11393,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>693.0751584803598</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>73.42412869297004</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>86.93357140528694</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>187.3654866184761</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.648410051340733</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>7.383900168702183</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>124.73834247728</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>117.2205539080144</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>122.2356629785231</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>110.0981677402</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>122.2356629785262</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>56.16198359623257</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>13.16677524242776</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>12.50455128074731</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>27.61596877375547</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>66.33105441802952</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>5.289078232230544</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>113.66643063315</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>48.31958288295749</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>73.4241286929701</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>68.10191868181127</v>
       </c>
       <c r="G43" t="n">
-        <v>41.52700769166989</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4.648410051341621</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>4.64841005134187</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>63.52994056050456</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>71.98949189919266</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>539860.9244177836</v>
+        <v>539860.9244177837</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>548244.9963785589</v>
+        <v>548244.996378559</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>548244.996378559</v>
+        <v>548244.9963785589</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>548244.9963785588</v>
+        <v>548244.9963785589</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>548244.9963785589</v>
+        <v>548244.9963785588</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>548244.9963785588</v>
+        <v>548244.996378559</v>
       </c>
     </row>
     <row r="15">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>465954.1344089305</v>
+        <v>465954.1344089303</v>
       </c>
       <c r="C2" t="n">
-        <v>465954.1344089303</v>
+        <v>465954.1344089304</v>
       </c>
       <c r="D2" t="n">
-        <v>465954.1344089305</v>
+        <v>465954.1344089304</v>
       </c>
       <c r="E2" t="n">
         <v>442748.66356079</v>
       </c>
       <c r="F2" t="n">
-        <v>442748.6635607902</v>
+        <v>442748.66356079</v>
       </c>
       <c r="G2" t="n">
-        <v>449624.322509958</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="H2" t="n">
         <v>449624.3225099579</v>
       </c>
       <c r="I2" t="n">
-        <v>449624.322509958</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="J2" t="n">
-        <v>449624.3225099581</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="K2" t="n">
-        <v>449624.322509958</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="L2" t="n">
-        <v>449624.322509958</v>
+        <v>449624.3225099578</v>
       </c>
       <c r="M2" t="n">
         <v>449624.3225099579</v>
@@ -26352,10 +26352,10 @@
         <v>449624.3225099579</v>
       </c>
       <c r="O2" t="n">
-        <v>442748.66356079</v>
+        <v>442748.6635607901</v>
       </c>
       <c r="P2" t="n">
-        <v>442748.66356079</v>
+        <v>442748.6635607901</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7625.622083481421</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>173130.4912056395</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>148130.4125690142</v>
       </c>
       <c r="C4" t="n">
-        <v>148130.4125690142</v>
+        <v>148130.4125690141</v>
       </c>
       <c r="D4" t="n">
         <v>148130.4125690142</v>
@@ -26435,25 +26435,25 @@
         <v>15116.17365792744</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="I4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="K4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="L4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="M4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="O4" t="n">
         <v>14883.79308177073</v>
@@ -26478,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>76058.47810803245</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>76058.47810803248</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26505,13 +26505,13 @@
         <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>76058.47810803245</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>76058.47810803245</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63972.737387751</v>
+        <v>63972.73738775076</v>
       </c>
       <c r="C6" t="n">
         <v>250377.4708024881</v>
@@ -26530,40 +26530,40 @@
         <v>250377.4708024882</v>
       </c>
       <c r="E6" t="n">
-        <v>144374.1047544259</v>
+        <v>144301.5876580254</v>
       </c>
       <c r="F6" t="n">
-        <v>351806.392370987</v>
+        <v>351733.8752745863</v>
       </c>
       <c r="G6" t="n">
-        <v>349132.4645801195</v>
+        <v>349081.4339179351</v>
       </c>
       <c r="H6" t="n">
-        <v>356758.0866636008</v>
+        <v>356707.0560014165</v>
       </c>
       <c r="I6" t="n">
-        <v>356758.0866636009</v>
+        <v>356707.0560014165</v>
       </c>
       <c r="J6" t="n">
-        <v>211224.4167287844</v>
+        <v>211173.3860666</v>
       </c>
       <c r="K6" t="n">
-        <v>356758.0866636009</v>
+        <v>356707.0560014165</v>
       </c>
       <c r="L6" t="n">
-        <v>356758.0866636009</v>
+        <v>356707.0560014163</v>
       </c>
       <c r="M6" t="n">
-        <v>183627.5954579613</v>
+        <v>183576.5647957769</v>
       </c>
       <c r="N6" t="n">
-        <v>356758.0866636009</v>
+        <v>356707.0560014165</v>
       </c>
       <c r="O6" t="n">
-        <v>351806.3923709869</v>
+        <v>351733.8752745864</v>
       </c>
       <c r="P6" t="n">
-        <v>351806.3923709868</v>
+        <v>351733.8752745864</v>
       </c>
     </row>
   </sheetData>
@@ -26825,7 +26825,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
         <v>1250.961810987376</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>694.7339978717818</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.82210658548049</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717818</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717818</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.82210658548049</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>169.2211944702621</v>
       </c>
       <c r="E2" t="n">
-        <v>101.1659342747065</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27432,10 +27432,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27542,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>63.52994056050366</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -27587,16 +27587,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>18.4496713308867</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>74.65813289307459</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>135.7138368186698</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>169.7948209536251</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>18.02540993598092</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>82.23069669041803</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>162.2770323843603</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-2.779647469158316e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28763,7 +28763,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>533.7539620806207</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L2" t="n">
         <v>556.2278131155941</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.2737632597931</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34874,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968705</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,13 +34938,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>158.2737632597932</v>
       </c>
       <c r="O6" t="n">
         <v>556.2278131155941</v>
@@ -35035,10 +35035,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>75.42597529544641</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35111,10 +35111,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968705</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>167.4878420635545</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
@@ -35187,13 +35187,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>444.6304669057958</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35430,10 +35430,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O12" t="n">
-        <v>719.1172132785132</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
@@ -35658,16 +35658,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>938.4307052596668</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>580.6279060692746</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35731,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>94.10236418953542</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>898.8580933463641</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36059,7 +36059,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968729</v>
       </c>
       <c r="Q19" t="n">
         <v>128.2829598391535</v>
@@ -36123,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36132,7 +36132,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>699.4275107890124</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36144,7 +36144,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="N21" t="n">
-        <v>928.4912652212506</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36369,13 +36369,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>818.1712833969947</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,10 +36837,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>958.5461846399799</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>428.7489458104537</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8052598432935</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>181.2265984013684</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>156.8890316103155</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37797,7 +37797,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>580.6279060692727</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>726.6390748562018</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,22 +38025,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>156.8890316103155</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>464.0513588372722</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>671.3043172755312</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
